--- a/图信息汇总.xlsx
+++ b/图信息汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63ED9B5-5A70-4764-8C00-4513D73A176F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD393A36-20BD-43AA-92BB-E99DEDD038D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>nodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>2020 United States presidential election</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1075,21 @@
         <v>55594</v>
       </c>
     </row>
-    <row r="17" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="M17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1098,33 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
         <v>0</v>
@@ -1091,7 +1139,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1220</v>
+      </c>
+      <c r="C19" s="3">
+        <v>90465</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5236</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10773</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1778</v>
+      </c>
+      <c r="I19" s="3">
+        <v>17890</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6616</v>
+      </c>
+      <c r="K19" s="3">
+        <v>11586</v>
+      </c>
       <c r="M19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1102,13 +1180,43 @@
         <v>19456</v>
       </c>
       <c r="P19" s="3">
-        <v>16080</v>
+        <v>2330</v>
       </c>
       <c r="Q19" s="3">
         <v>5556</v>
       </c>
     </row>
-    <row r="20" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1226</v>
+      </c>
+      <c r="C20" s="3">
+        <v>93924</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5269</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10880</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1853</v>
+      </c>
+      <c r="I20" s="3">
+        <v>18982</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6952</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12098</v>
+      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,13 +1227,43 @@
         <v>20786</v>
       </c>
       <c r="P20" s="3">
-        <v>16515</v>
+        <v>2394</v>
       </c>
       <c r="Q20" s="3">
         <v>5724</v>
       </c>
     </row>
-    <row r="21" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1229</v>
+      </c>
+      <c r="C21" s="3">
+        <v>95755</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5280</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10946</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1911</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19876</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7191</v>
+      </c>
+      <c r="K21" s="3">
+        <v>12576</v>
+      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1136,13 +1274,43 @@
         <v>21286</v>
       </c>
       <c r="P21" s="3">
-        <v>16714</v>
+        <v>2424</v>
       </c>
       <c r="Q21" s="3">
         <v>5830</v>
       </c>
     </row>
-    <row r="22" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1245</v>
+      </c>
+      <c r="C22" s="3">
+        <v>98824</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5378</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11094</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2040</v>
+      </c>
+      <c r="I22" s="3">
+        <v>22456</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7809</v>
+      </c>
+      <c r="K22" s="3">
+        <v>13289</v>
+      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1153,13 +1321,43 @@
         <v>21896</v>
       </c>
       <c r="P22" s="3">
-        <v>16843</v>
+        <v>2445</v>
       </c>
       <c r="Q22" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="23" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1250</v>
+      </c>
+      <c r="C23" s="3">
+        <v>99800</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11148</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2120</v>
+      </c>
+      <c r="I23" s="3">
+        <v>25485</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8185</v>
+      </c>
+      <c r="K23" s="3">
+        <v>13760</v>
+      </c>
       <c r="M23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1170,13 +1368,43 @@
         <v>22009</v>
       </c>
       <c r="P23" s="3">
-        <v>16951</v>
+        <v>2464</v>
       </c>
       <c r="Q23" s="3">
         <v>5976</v>
       </c>
     </row>
-    <row r="24" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1276</v>
+      </c>
+      <c r="C24" s="3">
+        <v>102608</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5503</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11338</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2759</v>
+      </c>
+      <c r="I24" s="3">
+        <v>208020</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11296</v>
+      </c>
+      <c r="K24" s="3">
+        <v>18008</v>
+      </c>
       <c r="M24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1187,13 +1415,43 @@
         <v>22523</v>
       </c>
       <c r="P24" s="3">
-        <v>17484</v>
+        <v>2534</v>
       </c>
       <c r="Q24" s="3">
         <v>6062</v>
       </c>
     </row>
-    <row r="25" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1296</v>
+      </c>
+      <c r="C25" s="3">
+        <v>105270</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5636</v>
+      </c>
+      <c r="E25" s="3">
+        <v>11527</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3006</v>
+      </c>
+      <c r="I25" s="3">
+        <v>276751</v>
+      </c>
+      <c r="J25" s="3">
+        <v>12334</v>
+      </c>
+      <c r="K25" s="3">
+        <v>20470</v>
+      </c>
       <c r="M25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1204,13 +1462,43 @@
         <v>22610</v>
       </c>
       <c r="P25" s="3">
-        <v>17603</v>
+        <v>2554</v>
       </c>
       <c r="Q25" s="3">
         <v>6088</v>
       </c>
     </row>
-    <row r="26" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1303</v>
+      </c>
+      <c r="C26" s="3">
+        <v>106657</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5670</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11583</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3127</v>
+      </c>
+      <c r="I26" s="3">
+        <v>314667</v>
+      </c>
+      <c r="J26" s="3">
+        <v>12789</v>
+      </c>
+      <c r="K26" s="3">
+        <v>21503</v>
+      </c>
       <c r="M26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1221,13 +1509,43 @@
         <v>23140</v>
       </c>
       <c r="P26" s="3">
-        <v>17731</v>
+        <v>2565</v>
       </c>
       <c r="Q26" s="3">
         <v>6133</v>
       </c>
     </row>
-    <row r="27" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1311</v>
+      </c>
+      <c r="C27" s="3">
+        <v>108050</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5690</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11663</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3278</v>
+      </c>
+      <c r="I27" s="3">
+        <v>367660</v>
+      </c>
+      <c r="J27" s="3">
+        <v>12884</v>
+      </c>
+      <c r="K27" s="3">
+        <v>23024</v>
+      </c>
       <c r="M27" s="3" t="s">
         <v>13</v>
       </c>
@@ -1238,13 +1556,43 @@
         <v>24424</v>
       </c>
       <c r="P27" s="3">
-        <v>17839</v>
+        <v>2584</v>
       </c>
       <c r="Q27" s="3">
         <v>6264</v>
       </c>
     </row>
-    <row r="28" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1314</v>
+      </c>
+      <c r="C28" s="3">
+        <v>108421</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5715</v>
+      </c>
+      <c r="E28" s="3">
+        <v>11751</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3351</v>
+      </c>
+      <c r="I28" s="3">
+        <v>382105</v>
+      </c>
+      <c r="J28" s="3">
+        <v>13163</v>
+      </c>
+      <c r="K28" s="3">
+        <v>23767</v>
+      </c>
       <c r="M28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1255,13 +1603,43 @@
         <v>25604</v>
       </c>
       <c r="P28" s="3">
-        <v>18746</v>
+        <v>2722</v>
       </c>
       <c r="Q28" s="3">
         <v>6596</v>
       </c>
     </row>
-    <row r="29" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1322</v>
+      </c>
+      <c r="C29" s="3">
+        <v>108704</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5843</v>
+      </c>
+      <c r="E29" s="3">
+        <v>11865</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3431</v>
+      </c>
+      <c r="I29" s="3">
+        <v>405540</v>
+      </c>
+      <c r="J29" s="3">
+        <v>13520</v>
+      </c>
+      <c r="K29" s="3">
+        <v>24572</v>
+      </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1272,13 +1650,43 @@
         <v>43502</v>
       </c>
       <c r="P29" s="3">
-        <v>24085</v>
+        <v>3530</v>
       </c>
       <c r="Q29" s="3">
         <v>7887</v>
       </c>
     </row>
-    <row r="30" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1331</v>
+      </c>
+      <c r="C30" s="3">
+        <v>110250</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5884</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11953</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3471</v>
+      </c>
+      <c r="I30" s="3">
+        <v>429762</v>
+      </c>
+      <c r="J30" s="3">
+        <v>13688</v>
+      </c>
+      <c r="K30" s="3">
+        <v>25120</v>
+      </c>
       <c r="M30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1289,13 +1697,43 @@
         <v>51982</v>
       </c>
       <c r="P30" s="3">
-        <v>25118</v>
+        <v>3688</v>
       </c>
       <c r="Q30" s="3">
         <v>8289</v>
       </c>
     </row>
-    <row r="31" spans="13:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1342</v>
+      </c>
+      <c r="C31" s="3">
+        <v>112344</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5935</v>
+      </c>
+      <c r="E31" s="3">
+        <v>12047</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3554</v>
+      </c>
+      <c r="I31" s="3">
+        <v>456680</v>
+      </c>
+      <c r="J31" s="3">
+        <v>14032</v>
+      </c>
+      <c r="K31" s="3">
+        <v>25946</v>
+      </c>
       <c r="M31" s="3" t="s">
         <v>19</v>
       </c>
@@ -1306,19 +1744,21 @@
         <v>55594</v>
       </c>
       <c r="P31" s="3">
-        <v>25974</v>
+        <v>3812</v>
       </c>
       <c r="Q31" s="3">
         <v>8538</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
